--- a/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4849,4 +4850,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3445</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8186</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4274</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7509</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6837</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6701</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6553</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5856,4 +5857,3746 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.0550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>142.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4696</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0454</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8182</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9112</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6122</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5919</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4836</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2406</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>47.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1583</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9487</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9299</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>45.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9203</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>54.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8211</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4740</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4323</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2708</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1354</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1175</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0075</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9980</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9157</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8367</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8140</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7732</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7728</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7640</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7510</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6690</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4996</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3950</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3786</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3721</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3490</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3312</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2516</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>23.05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>23.05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>55.09</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>55.09</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>62.44</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9599,4 +9600,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>97</v>
+      </c>
+      <c r="D2" t="n">
+        <v>70.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9608,7 +9609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9619,17 +9620,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9639,14 +9660,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>97</v>
-      </c>
-      <c r="D2" t="n">
-        <v>70.36</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>200.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.5292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -9655,14 +9698,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.85</v>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9620</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -9671,14 +9736,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>53</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45.61</v>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.1993</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -9687,13 +9774,4139 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7926</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>118.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3909</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>62.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1562</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>39.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0868</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7997</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>48.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6653</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5573</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3553</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3090</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1034</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9795</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9313</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9098</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7766</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7166</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6785</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6521</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6507</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6216</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6087</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6026</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4955</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4283</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4074</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>66.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3484</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3451</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3277</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3191</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3178</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>68.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>28.37</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003658</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长盛量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>28.37</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>109</v>
+      </c>
+      <c r="D2" t="n">
+        <v>70.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>97</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>53</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>60</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>41.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13805,7 +13806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13816,17 +13817,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13836,14 +13857,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>109</v>
-      </c>
-      <c r="D2" t="n">
-        <v>70.69</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>180.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -13852,14 +13895,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>97</v>
-      </c>
-      <c r="D3" t="n">
-        <v>70.36</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7225</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -13868,14 +13933,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.85</v>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5662</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -13884,14 +13971,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>53</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45.61</v>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4362</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -13900,13 +14009,1491 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0811</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9988</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8684</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8500</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6707</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6278</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5258</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4329</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>60.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009027</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>97</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>53</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>60</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>41.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15376,7 +15377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15387,17 +15388,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15407,14 +15428,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.28</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.1939</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -15423,14 +15466,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>109</v>
-      </c>
-      <c r="D3" t="n">
-        <v>70.69</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3562</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -15439,14 +15504,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>97</v>
-      </c>
-      <c r="D4" t="n">
-        <v>70.36</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9789</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -15455,14 +15542,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.85</v>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7255</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -15471,14 +15580,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>53</v>
-      </c>
-      <c r="D6" t="n">
-        <v>45.61</v>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -15487,13 +15618,1965 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4484</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3726</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3307</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2359</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0972</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0660</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0360</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9922</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9613</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8868</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7681</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7381</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6894</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6171</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5559</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4824</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4320</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3273</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>49.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>70.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>109</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>97</v>
+      </c>
+      <c r="D5" t="n">
+        <v>70.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>53</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>60</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>41.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>38.64</v>
+        <v>25.13</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>22.28</v>
+        <v>38.64</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>70.69</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D5" t="n">
-        <v>70.36</v>
+        <v>70.69</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n">
-        <v>26.85</v>
+        <v>70.36</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>45.61</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>53</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45.61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>60</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>41.54</v>
       </c>
     </row>
@@ -600,6 +617,2300 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>164.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6773</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5159</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2903</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2725</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0861</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8770</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8691</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8573</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8539</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015945</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6350</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5664</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5608</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3392</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2950</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>60.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮兴荣价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>40.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014526</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159743</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时中证湖北新旧动能转换ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>62.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014792</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013550</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015133</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安鼎安优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016600</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015181</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015134</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安鼎安优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013551</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014527</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013368</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014793</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013367</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015950</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>016924</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2665,7 +4976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4235,7 +6546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8431,7 +10742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12173,7 +14484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13179,7 +15490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15249,7 +17560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002013-中航机电.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>25.13</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>38.64</v>
+        <v>25.13</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>22.28</v>
+        <v>38.64</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>70.69</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D6" t="n">
-        <v>70.36</v>
+        <v>70.69</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D7" t="n">
-        <v>26.85</v>
+        <v>70.36</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>45.61</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2366 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>53</v>
+      </c>
+      <c r="D9" t="n">
+        <v>45.61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>60</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>41.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4998</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6191</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6683</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2550</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0912</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8182</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6364</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5967</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5776</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9268</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7111</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7089</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5727</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4881</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4579</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4399</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4233</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3470</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3439</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000014</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏聚利债券</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003092</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003093</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004026</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>融通收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2970,1386 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2730</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4881</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8898</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7875</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7589</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6056</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5275</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5188</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5019</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3810</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015223</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富进取成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>49.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016600</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015305</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159743</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证湖北新旧动能转换ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014792</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015306</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015224</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富进取成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>49.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014793</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015179</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015180</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合D</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2910,7 +6643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4976,7 +8709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6546,7 +10279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10742,7 +14475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14484,7 +18217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15490,7 +19223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17558,2340 +21291,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001475</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达国防军工混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>84.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8.4998</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001838</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>36.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.6191</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512660</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>102.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.9238</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005609</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国军工主题混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>65.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.6683</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160630</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华中证国防指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>70.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.2550</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证军工指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>76.32</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.0912</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004263</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华安沪港深机会灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>45.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.9048</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>48.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>75.28</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.8182</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>110013</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达科翔混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>56.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.6364</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>110029</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达科讯混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.6250</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004224</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方军工改革灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>18.61</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.5967</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002251</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏军工安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>26.47</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.5776</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>110001</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>易方达平稳增长混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>31.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>63.86</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.9268</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001018</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>24.69</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.7111</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>512680</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>24.70</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>99.38</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.7089</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001725</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇添富中国高端制造股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>16.41</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>83.58</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5727</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000654</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华商新锐产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>16.38</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>84.87</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.4881</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005802</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>汇添富智能制造股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>11.74</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>81.59</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.4579</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>040011</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华安核心混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4399</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008980</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中邮科技创新精选混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>82.02</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4233</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>000596</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>前海开源中证军工指数A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>13.71</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3798</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>163115</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>申万菱信中证军工指数A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3470</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002746</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>汇添富多策略定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>72.01</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.3439</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>011113</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>富国军工主题混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3260</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>512670</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>鹏华中证国防ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>98.85</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2762</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002199</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>前海开源中证军工指数C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2526</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006533</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>易方达科融混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2394</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001760</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>嘉实创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1807</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>501019</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国泰国证航天军工指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>95.19</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1760</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>630011</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华商主题精选混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>83.86</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1639</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>160643</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>鹏华中证空天一体军工指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1531</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>008961</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华商科技创新混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1436</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010364</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>鹏华中证空天一体军工指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1401</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008981</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中邮科技创新精选混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>82.02</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1299</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>004139</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中邮军民融合灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>90.68</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1243</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>004423</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>华商研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>82.61</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1094</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>000014</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>华夏聚利债券</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>27.65</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1069</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>000535</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>长盛航天海工装备灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0880</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>004025</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>融通收益增强债券A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0855</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001046</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>华夏可转债增强债券I</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>41.59</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0802</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001045</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>华夏可转债增强债券A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>41.59</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0802</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>005774</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>华夏产业升级混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0734</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>011148</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>南方军工改革灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0695</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>002604</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>华夏新起点灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0632</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>004351</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>009077</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>33.47</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0570</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>009078</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>33.47</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0503</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>512560</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>易方达中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>99.03</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0488</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>502003</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>易方达军工指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0486</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>001479</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>中邮风格轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0478</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>004350</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>汇丰晋信价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0444</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>512810</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>华宝兴业中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>98.89</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0381</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>610004</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>信达澳银中小盘混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>008778</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>003092</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>华商丰利增强定期开放债券A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>003093</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>华商丰利增强定期开放债券C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>008779</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>005166</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>004026</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>融通收益增强债券C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>008213</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>华夏新起点灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>